--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Location</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Location|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -457,6 +457,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Location.meta.security</t>
   </si>
   <si>
@@ -622,7 +625,7 @@
     <t>usePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-use-period}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-use-period|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -729,7 +732,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -802,7 +805,7 @@
     <t>Location.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -854,7 +857,7 @@
     <t>The operational status if the location (where typically a bed/room).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116|2.0.0</t>
   </si>
   <si>
     <t>Location.name</t>
@@ -936,7 +939,7 @@
     <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>.code</t>
@@ -945,7 +948,7 @@
     <t>Location.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -961,7 +964,7 @@
     <t>Location.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -992,7 +995,7 @@
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>.playingEntity [classCode=PLC].code</t>
@@ -1095,7 +1098,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1123,7 +1126,7 @@
     <t>positionRoom</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-room}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-room|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1640,7 +1643,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.45703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.96484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1655,7 +1658,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.3671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2801,7 +2804,7 @@
         <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>76</v>
@@ -2863,10 +2866,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2889,16 +2892,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2924,13 +2927,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2948,7 +2951,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2971,10 +2974,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2997,16 +3000,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3032,13 +3035,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3056,7 +3059,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3079,10 +3082,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3108,13 +3111,13 @@
         <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3164,7 +3167,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3187,10 +3190,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3213,16 +3216,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3248,13 +3251,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3272,7 +3275,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3295,14 +3298,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3321,16 +3324,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3380,7 +3383,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3395,7 +3398,7 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3403,14 +3406,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3429,16 +3432,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3488,7 +3491,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3503,7 +3506,7 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3511,10 +3514,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3540,10 +3543,10 @@
         <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3592,7 +3595,7 @@
         <v>112</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3615,13 +3618,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
@@ -3643,13 +3646,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3700,7 +3703,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3709,7 +3712,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>114</v>
@@ -3723,10 +3726,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3752,16 +3755,16 @@
         <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3810,7 +3813,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3825,7 +3828,7 @@
         <v>114</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3833,10 +3836,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3859,17 +3862,17 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3918,7 +3921,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3933,18 +3936,18 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4047,10 +4050,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4155,10 +4158,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4181,19 +4184,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4218,13 +4221,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4242,7 +4245,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4257,7 +4260,7 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4265,10 +4268,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4291,19 +4294,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4328,11 +4331,11 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4350,7 +4353,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4365,7 +4368,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4373,10 +4376,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4402,16 +4405,16 @@
         <v>127</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4424,7 +4427,7 @@
         <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>76</v>
@@ -4460,7 +4463,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4475,7 +4478,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4483,10 +4486,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4512,13 +4515,13 @@
         <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4532,7 +4535,7 @@
         <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>76</v>
@@ -4568,7 +4571,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4583,7 +4586,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4591,10 +4594,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4617,13 +4620,13 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4674,7 +4677,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4689,7 +4692,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4697,10 +4700,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4723,16 +4726,16 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4782,7 +4785,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4797,7 +4800,7 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4805,10 +4808,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4831,13 +4834,13 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4864,13 +4867,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4888,7 +4891,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4903,18 +4906,18 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4937,13 +4940,13 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4970,13 +4973,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -4994,7 +4997,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5012,15 +5015,15 @@
         <v>103</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5046,13 +5049,13 @@
         <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5102,7 +5105,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5117,7 +5120,7 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5125,10 +5128,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5154,16 +5157,16 @@
         <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5212,7 +5215,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5227,7 +5230,7 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5235,10 +5238,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5264,14 +5267,14 @@
         <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5320,7 +5323,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5335,7 +5338,7 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5343,10 +5346,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5369,19 +5372,19 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5406,13 +5409,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5430,7 +5433,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5445,18 +5448,18 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5479,13 +5482,13 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5512,11 +5515,11 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5534,7 +5537,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5549,18 +5552,18 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5583,13 +5586,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5640,7 +5643,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5655,7 +5658,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5663,10 +5666,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5689,19 +5692,19 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5750,7 +5753,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5765,7 +5768,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5773,10 +5776,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5799,17 +5802,17 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5834,11 +5837,11 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5856,7 +5859,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5871,18 +5874,18 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5905,17 +5908,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5964,7 +5967,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5979,7 +5982,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5987,10 +5990,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6093,10 +6096,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6201,14 +6204,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6230,16 +6233,16 @@
         <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6288,7 +6291,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6303,7 +6306,7 @@
         <v>114</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6311,10 +6314,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6337,13 +6340,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6394,7 +6397,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>85</v>
@@ -6409,7 +6412,7 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6417,10 +6420,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6443,13 +6446,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6500,7 +6503,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>85</v>
@@ -6515,7 +6518,7 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6523,10 +6526,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6549,13 +6552,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6606,7 +6609,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6621,7 +6624,7 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6629,10 +6632,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6655,19 +6658,19 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6716,7 +6719,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6731,7 +6734,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6739,10 +6742,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6765,17 +6768,17 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6824,7 +6827,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6839,7 +6842,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6847,10 +6850,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6953,10 +6956,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7061,13 +7064,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="C51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>76</v>
@@ -7089,13 +7092,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7169,10 +7172,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7198,13 +7201,13 @@
         <v>99</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7254,7 +7257,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7263,13 +7266,13 @@
         <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7277,10 +7280,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7306,13 +7309,13 @@
         <v>127</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7338,13 +7341,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7362,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7377,7 +7380,7 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7385,10 +7388,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7411,16 +7414,16 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7470,7 +7473,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7485,7 +7488,7 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7493,10 +7496,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7522,13 +7525,13 @@
         <v>99</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7578,7 +7581,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7593,7 +7596,7 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7601,10 +7604,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7627,16 +7630,16 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7686,7 +7689,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7701,7 +7704,7 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7709,10 +7712,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7815,10 +7818,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7923,14 +7926,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7952,16 +7955,16 @@
         <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8010,7 +8013,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8025,7 +8028,7 @@
         <v>114</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8033,10 +8036,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8059,13 +8062,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8092,13 +8095,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8116,7 +8119,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8131,7 +8134,7 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8139,10 +8142,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8165,13 +8168,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8222,7 +8225,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8237,7 +8240,7 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8245,10 +8248,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8271,13 +8274,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8328,7 +8331,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8343,7 +8346,7 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8351,10 +8354,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8377,13 +8380,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8434,7 +8437,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8449,7 +8452,7 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8457,10 +8460,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8486,10 +8489,10 @@
         <v>99</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8540,7 +8543,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8563,10 +8566,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8589,17 +8592,17 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8648,7 +8651,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
